--- a/public/import/product/debitur_badan_usaha.xlsx
+++ b/public/import/product/debitur_badan_usaha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4362C94-2576-4E1D-940C-425489E9009B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F11D117-09B4-429E-95C4-0CAD1A0F936C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CDD8E711-17C7-4653-A832-E2E94327C97D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>NAMA_PERUSAHAAN</t>
   </si>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E9E598-A451-47D1-A74E-72FF52420DE5}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,6 +906,9 @@
       <c r="K4" t="s">
         <v>39</v>
       </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
